--- a/Reports/heart/heart_distcorrgan_100_02.xlsx
+++ b/Reports/heart/heart_distcorrgan_100_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0444</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.06710000000000001</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8783</v>
+        <v>1.0372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7733</v>
+        <v>1.0799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1838</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6798</v>
+        <v>1.1144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0636</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8871</v>
+        <v>1.0414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1187</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6554</v>
+        <v>0.6435</v>
       </c>
     </row>
     <row r="13">
